--- a/app/datasets/HollandCode.xlsx
+++ b/app/datasets/HollandCode.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$176</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="162">
   <si>
     <t>Occupational Title</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Production Planners (supply chain managers)</t>
   </si>
   <si>
-    <t>RET</t>
-  </si>
-  <si>
     <t>Psychiatric Aides (technicians)</t>
   </si>
   <si>
@@ -411,15 +408,6 @@
   </si>
   <si>
     <t>ArtsDesign</t>
-  </si>
-  <si>
-    <t>HUMMS, Sports</t>
-  </si>
-  <si>
-    <t>HUMMS, GAS, ABM</t>
-  </si>
-  <si>
-    <t>GAS, Sports</t>
   </si>
   <si>
     <t>Teachers</t>
@@ -932,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,7 +935,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -958,7 +946,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -969,10 +957,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>102</v>
@@ -980,40 +968,40 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1024,7 +1012,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1035,7 +1023,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>52</v>
@@ -1046,7 +1034,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -1057,95 +1045,95 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1156,7 +1144,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
@@ -1167,29 +1155,29 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>3</v>
@@ -1200,7 +1188,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1211,95 +1199,95 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>3</v>
@@ -1310,7 +1298,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>3</v>
@@ -1321,7 +1309,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
@@ -1332,7 +1320,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -1343,7 +1331,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>42</v>
@@ -1354,7 +1342,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>42</v>
@@ -1365,7 +1353,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>68</v>
@@ -1376,18 +1364,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1398,7 +1386,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>55</v>
@@ -1409,7 +1397,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -1420,18 +1408,18 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>18</v>
@@ -1442,7 +1430,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -1453,7 +1441,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -1464,73 +1452,73 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
@@ -1541,40 +1529,40 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -1585,7 +1573,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>5</v>
@@ -1596,7 +1584,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -1607,7 +1595,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>19</v>
@@ -1618,7 +1606,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>11</v>
@@ -1629,18 +1617,18 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>39</v>
@@ -1651,7 +1639,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -1662,7 +1650,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>3</v>
@@ -1673,7 +1661,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
@@ -1684,7 +1672,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>21</v>
@@ -1695,7 +1683,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>14</v>
@@ -1706,76 +1694,76 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>3</v>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>41</v>
@@ -1783,7 +1771,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>3</v>
@@ -1794,7 +1782,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
@@ -1805,79 +1793,79 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>15</v>
+        <v>125</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>12</v>
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
+        <v>125</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,76 +1873,76 @@
         <v>123</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,131 +1950,131 @@
         <v>122</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,139 +2085,139 @@
         <v>3</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>17</v>
+        <v>122</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>29</v>
+        <v>122</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>14</v>
+        <v>122</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,43 +2225,43 @@
         <v>123</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,10 +2269,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,54 +2280,54 @@
         <v>126</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,32 +2335,32 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,65 +2368,65 @@
         <v>122</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,87 +2434,87 @@
         <v>122</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>122</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>127</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>127</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,21 +2522,21 @@
         <v>126</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,76 +2544,76 @@
         <v>126</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,54 +2621,54 @@
         <v>123</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,10 +2676,10 @@
         <v>123</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,54 +2687,54 @@
         <v>126</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,43 +2742,43 @@
         <v>124</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,32 +2786,32 @@
         <v>123</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2831,10 +2819,54 @@
         <v>122</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>122</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>108</v>
+      <c r="C176" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/app/datasets/HollandCode.xlsx
+++ b/app/datasets/HollandCode.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$181</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="162">
   <si>
     <t>Occupational Title</t>
   </si>
@@ -203,9 +203,6 @@
     <t>RAE</t>
   </si>
   <si>
-    <t>Engineers, Yard (railroad)</t>
-  </si>
-  <si>
     <t>Executive Assistants (congressional aides)</t>
   </si>
   <si>
@@ -515,100 +512,7 @@
     <t>Diagnostic</t>
   </si>
   <si>
-    <t>Course 1</t>
-  </si>
-  <si>
-    <t>Course 2</t>
-  </si>
-  <si>
-    <t>Course 3</t>
-  </si>
-  <si>
-    <t>BS in Marine Transportation</t>
-  </si>
-  <si>
-    <t>BS in Marine Engineering</t>
-  </si>
-  <si>
-    <t>BS in Agribusiness</t>
-  </si>
-  <si>
-    <t>BS in Agriculture</t>
-  </si>
-  <si>
-    <t>BS in Agricultural Engineering</t>
-  </si>
-  <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>BS in Economics</t>
-  </si>
-  <si>
-    <t>BS in Business Administration</t>
-  </si>
-  <si>
-    <t>BS in Chemical Engineeering</t>
-  </si>
-  <si>
-    <t>Bachelor of Elementary Education</t>
-  </si>
-  <si>
-    <t>Bachelor of Secondary Education</t>
-  </si>
-  <si>
-    <t>Bachelor of Technical Teacher Education</t>
-  </si>
-  <si>
-    <t>BS in Mathematics</t>
-  </si>
-  <si>
-    <t>BS in Manufacturing Engineering</t>
-  </si>
-  <si>
-    <t>BS in Physics</t>
-  </si>
-  <si>
-    <t>BSED major in PE</t>
-  </si>
-  <si>
-    <t>BS in Hotel and Restaurant Management</t>
-  </si>
-  <si>
-    <t>BS in Hospitality Management</t>
-  </si>
-  <si>
-    <t>No Formal Education</t>
-  </si>
-  <si>
-    <t>BSBA in Marketing Management</t>
-  </si>
-  <si>
-    <t>BS in Computer Science</t>
-  </si>
-  <si>
-    <t>BS in Statistics</t>
-  </si>
-  <si>
-    <t>BS in Accountancy</t>
-  </si>
-  <si>
-    <t>HUMMS, GAS, ABM</t>
-  </si>
-  <si>
-    <t>HUMMS, Sports</t>
-  </si>
-  <si>
-    <t>GAS, Sports</t>
-  </si>
-  <si>
-    <t>RET</t>
-  </si>
-  <si>
-    <t>Nursing</t>
-  </si>
-  <si>
-    <t>Medical Technology</t>
+    <t>Yard (railroad)</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1147,19 +1051,13 @@
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3</v>
@@ -1167,17 +1065,13 @@
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
@@ -1189,35 +1083,29 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>169</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1225,13 +1113,13 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1239,13 +1127,13 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1253,13 +1141,13 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1267,7 +1155,7 @@
     </row>
     <row r="9" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>19</v>
@@ -1281,7 +1169,7 @@
     </row>
     <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -1295,7 +1183,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>26</v>
@@ -1309,7 +1197,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
@@ -1323,7 +1211,7 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>4</v>
@@ -1337,7 +1225,7 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>4</v>
@@ -1351,7 +1239,7 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>21</v>
@@ -1365,7 +1253,7 @@
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>12</v>
@@ -1379,13 +1267,13 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1393,13 +1281,13 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1407,13 +1295,13 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1421,7 +1309,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3</v>
@@ -1435,7 +1323,7 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>12</v>
@@ -1449,13 +1337,13 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1463,7 +1351,7 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>27</v>
@@ -1477,13 +1365,13 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1491,13 +1379,13 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1505,13 +1393,13 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1519,13 +1407,13 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1533,10 +1421,10 @@
     </row>
     <row r="28" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>41</v>
@@ -1547,7 +1435,7 @@
     </row>
     <row r="29" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3</v>
@@ -1561,7 +1449,7 @@
     </row>
     <row r="30" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>4</v>
@@ -1575,10 +1463,10 @@
     </row>
     <row r="31" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>41</v>
@@ -1589,7 +1477,7 @@
     </row>
     <row r="32" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>3</v>
@@ -1603,7 +1491,7 @@
     </row>
     <row r="33" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>4</v>
@@ -1617,7 +1505,7 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>12</v>
@@ -1631,7 +1519,7 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>12</v>
@@ -1645,7 +1533,7 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>5</v>
@@ -1659,7 +1547,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>11</v>
@@ -1673,7 +1561,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>18</v>
@@ -1687,7 +1575,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>18</v>
@@ -1701,7 +1589,7 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>18</v>
@@ -1715,7 +1603,7 @@
     </row>
     <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>18</v>
@@ -1729,13 +1617,13 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1743,7 +1631,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>14</v>
@@ -1757,7 +1645,7 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>39</v>
@@ -1771,7 +1659,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>14</v>
@@ -1785,13 +1673,13 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1799,13 +1687,13 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1813,13 +1701,13 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1827,7 +1715,7 @@
     </row>
     <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>18</v>
@@ -1841,7 +1729,7 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>18</v>
@@ -1855,7 +1743,7 @@
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>42</v>
@@ -1869,7 +1757,7 @@
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>42</v>
@@ -1883,13 +1771,13 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1897,13 +1785,13 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1911,13 +1799,13 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1925,13 +1813,13 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1939,13 +1827,13 @@
     </row>
     <row r="57" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1953,13 +1841,13 @@
     </row>
     <row r="58" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1970,26 +1858,24 @@
         <v>121</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1997,13 +1883,13 @@
     </row>
     <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2011,13 +1897,13 @@
     </row>
     <row r="62" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2025,13 +1911,13 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2042,10 +1928,10 @@
         <v>125</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2053,13 +1939,13 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2067,13 +1953,13 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2081,13 +1967,13 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2095,13 +1981,13 @@
     </row>
     <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2109,13 +1995,13 @@
     </row>
     <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2123,13 +2009,13 @@
     </row>
     <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2137,13 +2023,13 @@
     </row>
     <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2151,13 +2037,13 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2165,13 +2051,13 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2179,13 +2065,13 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2193,27 +2079,27 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2221,13 +2107,13 @@
     </row>
     <row r="77" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2235,27 +2121,27 @@
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2263,13 +2149,13 @@
     </row>
     <row r="80" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2277,13 +2163,13 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2291,13 +2177,13 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2305,13 +2191,13 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2319,13 +2205,13 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2333,13 +2219,13 @@
     </row>
     <row r="85" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2347,13 +2233,13 @@
     </row>
     <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2364,10 +2250,10 @@
         <v>123</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2375,13 +2261,13 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2389,13 +2275,13 @@
     </row>
     <row r="89" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -2403,13 +2289,13 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -2417,13 +2303,13 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -2431,13 +2317,13 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -2445,13 +2331,13 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -2459,13 +2345,13 @@
     </row>
     <row r="94" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2476,10 +2362,10 @@
         <v>125</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2490,10 +2376,10 @@
         <v>122</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -2501,13 +2387,13 @@
     </row>
     <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2518,10 +2404,10 @@
         <v>122</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2529,13 +2415,13 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2543,13 +2429,13 @@
     </row>
     <row r="100" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -2557,13 +2443,13 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -2571,13 +2457,13 @@
     </row>
     <row r="102" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -2585,13 +2471,13 @@
     </row>
     <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -2599,13 +2485,13 @@
     </row>
     <row r="104" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -2613,13 +2499,13 @@
     </row>
     <row r="105" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2630,10 +2516,10 @@
         <v>124</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -2641,13 +2527,13 @@
     </row>
     <row r="107" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -2658,10 +2544,10 @@
         <v>125</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -2669,13 +2555,13 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -2683,13 +2569,13 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -2697,13 +2583,13 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -2711,13 +2597,13 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -2725,13 +2611,13 @@
     </row>
     <row r="113" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2739,13 +2625,13 @@
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -2753,13 +2639,13 @@
     </row>
     <row r="115" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -2767,13 +2653,13 @@
     </row>
     <row r="116" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -2781,13 +2667,13 @@
     </row>
     <row r="117" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -2798,10 +2684,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -2809,13 +2695,13 @@
     </row>
     <row r="119" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -2823,13 +2709,13 @@
     </row>
     <row r="120" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -2837,13 +2723,13 @@
     </row>
     <row r="121" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -2854,10 +2740,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -2865,13 +2751,13 @@
     </row>
     <row r="123" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -2879,13 +2765,13 @@
     </row>
     <row r="124" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -2893,13 +2779,13 @@
     </row>
     <row r="125" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -2910,10 +2796,10 @@
         <v>122</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -2921,13 +2807,13 @@
     </row>
     <row r="127" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -2935,13 +2821,13 @@
     </row>
     <row r="128" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -2949,13 +2835,13 @@
     </row>
     <row r="129" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -2963,13 +2849,13 @@
     </row>
     <row r="130" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -2977,13 +2863,13 @@
     </row>
     <row r="131" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -2991,13 +2877,13 @@
     </row>
     <row r="132" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -3005,13 +2891,13 @@
     </row>
     <row r="133" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -3019,13 +2905,13 @@
     </row>
     <row r="134" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -3033,13 +2919,13 @@
     </row>
     <row r="135" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -3047,13 +2933,13 @@
     </row>
     <row r="136" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -3064,10 +2950,10 @@
         <v>121</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -3075,13 +2961,13 @@
     </row>
     <row r="138" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -3089,13 +2975,13 @@
     </row>
     <row r="139" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -3103,13 +2989,13 @@
     </row>
     <row r="140" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -3117,13 +3003,13 @@
     </row>
     <row r="141" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -3131,13 +3017,13 @@
     </row>
     <row r="142" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -3145,13 +3031,13 @@
     </row>
     <row r="143" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -3159,243 +3045,195 @@
     </row>
     <row r="144" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B146" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B147" s="9" t="s">
+      <c r="C151" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B148" s="9" t="s">
+      <c r="C152" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+      <c r="C153" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -3403,13 +3241,13 @@
     </row>
     <row r="158" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -3417,404 +3255,377 @@
     </row>
     <row r="159" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>192</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C164" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>122</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>122</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>160</v>
+      <c r="A174" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>122</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>161</v>
+    <row r="175" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>121</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>107</v>
+    <row r="176" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>121</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>121</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -7858,6 +7669,31 @@
       <c r="D1000" s="3"/>
       <c r="E1000" s="3"/>
       <c r="F1000" s="3"/>
+    </row>
+    <row r="1001" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+    </row>
+    <row r="1002" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+    </row>
+    <row r="1003" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="3"/>
+      <c r="F1003" s="3"/>
+    </row>
+    <row r="1004" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1004" s="3"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="3"/>
+    </row>
+    <row r="1005" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1005" s="3"/>
+      <c r="E1005" s="3"/>
+      <c r="F1005" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
